--- a/交易分析/2022年第三季度/技术面2022-11-01.xlsx
+++ b/交易分析/2022年第三季度/技术面2022-11-01.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26000" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$B$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$A$1:$B$269</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$B$269</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2330,13 +2330,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2359,7 +2359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2372,11 +2372,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2389,28 +2395,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2441,16 +2433,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2459,14 +2460,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2487,7 +2480,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2496,7 +2489,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2560,13 +2560,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2578,7 +2596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2590,25 +2608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2620,13 +2644,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,49 +2716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,49 +2740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2772,24 +2772,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2807,6 +2789,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2843,174 +2860,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3025,10 +3025,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3038,13 +3038,13 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3059,7 +3059,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3137,11 +3137,19 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19067,15 +19075,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AH266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="T137" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL267" sqref="AL267"/>
+      <selection pane="bottomRight" activeCell="Z193" sqref="Z193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -19151,7 +19159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" hidden="1" spans="1:41">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -19218,7 +19226,7 @@
       <c r="AN2" s="15"/>
       <c r="AO2" s="16"/>
     </row>
-    <row r="3" ht="28" spans="1:41">
+    <row r="3" ht="28" hidden="1" spans="1:41">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -19299,7 +19307,7 @@
       <c r="AN3" s="15"/>
       <c r="AO3" s="16"/>
     </row>
-    <row r="4" ht="41" spans="1:41">
+    <row r="4" ht="41" hidden="1" spans="1:41">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -19356,7 +19364,7 @@
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" ht="41" spans="1:41">
+    <row r="5" ht="41" hidden="1" spans="1:41">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -19413,7 +19421,7 @@
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
     </row>
-    <row r="6" ht="41" spans="1:41">
+    <row r="6" ht="41" hidden="1" spans="1:41">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -19470,7 +19478,7 @@
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
     </row>
-    <row r="7" ht="41" spans="1:41">
+    <row r="7" ht="41" hidden="1" spans="1:41">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -19527,7 +19535,7 @@
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
     </row>
-    <row r="8" ht="41" spans="1:41">
+    <row r="8" ht="41" hidden="1" spans="1:41">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -19584,7 +19592,7 @@
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
     </row>
-    <row r="9" ht="41" spans="1:41">
+    <row r="9" ht="41" hidden="1" spans="1:41">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -19641,7 +19649,7 @@
       <c r="AN9" s="6"/>
       <c r="AO9" s="6"/>
     </row>
-    <row r="10" ht="28" spans="1:41">
+    <row r="10" ht="28" hidden="1" spans="1:41">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -19698,7 +19706,7 @@
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
     </row>
-    <row r="11" ht="41" spans="1:41">
+    <row r="11" ht="41" hidden="1" spans="1:41">
       <c r="A11" s="3" t="s">
         <v>66</v>
       </c>
@@ -19755,7 +19763,7 @@
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
     </row>
-    <row r="12" ht="41" spans="1:41">
+    <row r="12" ht="41" hidden="1" spans="1:41">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
@@ -19812,7 +19820,7 @@
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
     </row>
-    <row r="13" ht="41" spans="1:41">
+    <row r="13" ht="41" hidden="1" spans="1:41">
       <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
@@ -19869,7 +19877,7 @@
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
     </row>
-    <row r="14" ht="41" spans="1:41">
+    <row r="14" ht="41" hidden="1" spans="1:41">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
@@ -19926,7 +19934,7 @@
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
     </row>
-    <row r="15" ht="28" spans="1:41">
+    <row r="15" ht="28" hidden="1" spans="1:41">
       <c r="A15" s="3" t="s">
         <v>78</v>
       </c>
@@ -19983,7 +19991,7 @@
       <c r="AN15" s="6"/>
       <c r="AO15" s="6"/>
     </row>
-    <row r="16" ht="41" spans="1:41">
+    <row r="16" ht="41" hidden="1" spans="1:41">
       <c r="A16" s="3" t="s">
         <v>81</v>
       </c>
@@ -20040,7 +20048,7 @@
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
     </row>
-    <row r="17" ht="41" spans="1:41">
+    <row r="17" ht="41" hidden="1" spans="1:41">
       <c r="A17" s="3" t="s">
         <v>83</v>
       </c>
@@ -20097,7 +20105,7 @@
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
     </row>
-    <row r="18" ht="41" spans="1:41">
+    <row r="18" ht="41" hidden="1" spans="1:41">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -20154,7 +20162,7 @@
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
     </row>
-    <row r="19" ht="41" spans="1:41">
+    <row r="19" ht="41" hidden="1" spans="1:41">
       <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
@@ -20211,7 +20219,7 @@
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
     </row>
-    <row r="20" ht="41" spans="1:41">
+    <row r="20" ht="41" hidden="1" spans="1:41">
       <c r="A20" s="3" t="s">
         <v>91</v>
       </c>
@@ -20268,7 +20276,7 @@
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
     </row>
-    <row r="21" ht="28" spans="1:41">
+    <row r="21" ht="28" hidden="1" spans="1:41">
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
@@ -20325,7 +20333,7 @@
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
     </row>
-    <row r="22" ht="28" spans="1:41">
+    <row r="22" ht="28" hidden="1" spans="1:41">
       <c r="A22" s="3" t="s">
         <v>97</v>
       </c>
@@ -20382,7 +20390,7 @@
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
     </row>
-    <row r="23" ht="41" spans="1:41">
+    <row r="23" ht="41" hidden="1" spans="1:41">
       <c r="A23" s="3" t="s">
         <v>99</v>
       </c>
@@ -20439,7 +20447,7 @@
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
     </row>
-    <row r="24" ht="41" spans="1:41">
+    <row r="24" ht="41" hidden="1" spans="1:41">
       <c r="A24" s="3" t="s">
         <v>102</v>
       </c>
@@ -20496,7 +20504,7 @@
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
     </row>
-    <row r="25" ht="41" spans="1:41">
+    <row r="25" ht="41" hidden="1" spans="1:41">
       <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
@@ -20553,7 +20561,7 @@
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
     </row>
-    <row r="26" ht="41" spans="1:41">
+    <row r="26" ht="41" hidden="1" spans="1:41">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -20610,7 +20618,7 @@
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
     </row>
-    <row r="27" ht="41" spans="1:41">
+    <row r="27" ht="41" hidden="1" spans="1:41">
       <c r="A27" s="3" t="s">
         <v>111</v>
       </c>
@@ -20667,7 +20675,7 @@
       <c r="AN27" s="6"/>
       <c r="AO27" s="6"/>
     </row>
-    <row r="28" ht="41" spans="1:41">
+    <row r="28" ht="41" hidden="1" spans="1:41">
       <c r="A28" s="3" t="s">
         <v>113</v>
       </c>
@@ -20724,7 +20732,7 @@
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
     </row>
-    <row r="29" ht="28" spans="1:41">
+    <row r="29" ht="28" hidden="1" spans="1:41">
       <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
@@ -20781,7 +20789,7 @@
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
     </row>
-    <row r="30" ht="41" spans="1:41">
+    <row r="30" ht="41" hidden="1" spans="1:41">
       <c r="A30" s="3" t="s">
         <v>118</v>
       </c>
@@ -20838,7 +20846,7 @@
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
     </row>
-    <row r="31" ht="41" spans="1:41">
+    <row r="31" ht="41" hidden="1" spans="1:41">
       <c r="A31" s="3" t="s">
         <v>120</v>
       </c>
@@ -20895,7 +20903,7 @@
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
     </row>
-    <row r="32" ht="41" spans="1:41">
+    <row r="32" ht="41" hidden="1" spans="1:41">
       <c r="A32" s="3" t="s">
         <v>123</v>
       </c>
@@ -20952,7 +20960,7 @@
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
     </row>
-    <row r="33" ht="41" spans="1:41">
+    <row r="33" ht="41" hidden="1" spans="1:41">
       <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
@@ -21009,7 +21017,7 @@
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
     </row>
-    <row r="34" ht="41" spans="1:41">
+    <row r="34" ht="41" hidden="1" spans="1:41">
       <c r="A34" s="3" t="s">
         <v>127</v>
       </c>
@@ -21066,7 +21074,7 @@
       <c r="AN34" s="6"/>
       <c r="AO34" s="6"/>
     </row>
-    <row r="35" ht="28" spans="1:41">
+    <row r="35" ht="28" hidden="1" spans="1:41">
       <c r="A35" s="3" t="s">
         <v>130</v>
       </c>
@@ -21123,7 +21131,7 @@
       <c r="AN35" s="6"/>
       <c r="AO35" s="6"/>
     </row>
-    <row r="36" ht="41" spans="1:41">
+    <row r="36" ht="41" hidden="1" spans="1:41">
       <c r="A36" s="3" t="s">
         <v>133</v>
       </c>
@@ -21180,7 +21188,7 @@
       <c r="AN36" s="6"/>
       <c r="AO36" s="6"/>
     </row>
-    <row r="37" ht="41" spans="1:41">
+    <row r="37" ht="41" hidden="1" spans="1:41">
       <c r="A37" s="3" t="s">
         <v>136</v>
       </c>
@@ -21237,7 +21245,7 @@
       <c r="AN37" s="6"/>
       <c r="AO37" s="6"/>
     </row>
-    <row r="38" ht="41" spans="1:41">
+    <row r="38" ht="41" hidden="1" spans="1:41">
       <c r="A38" s="3" t="s">
         <v>138</v>
       </c>
@@ -21294,7 +21302,7 @@
       <c r="AN38" s="6"/>
       <c r="AO38" s="6"/>
     </row>
-    <row r="39" ht="41" spans="1:41">
+    <row r="39" ht="41" hidden="1" spans="1:41">
       <c r="A39" s="3" t="s">
         <v>140</v>
       </c>
@@ -21351,7 +21359,7 @@
       <c r="AN39" s="6"/>
       <c r="AO39" s="6"/>
     </row>
-    <row r="40" ht="41" spans="1:41">
+    <row r="40" ht="41" hidden="1" spans="1:41">
       <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
@@ -21408,7 +21416,7 @@
       <c r="AN40" s="6"/>
       <c r="AO40" s="6"/>
     </row>
-    <row r="41" ht="41" spans="1:41">
+    <row r="41" ht="41" hidden="1" spans="1:41">
       <c r="A41" s="3" t="s">
         <v>145</v>
       </c>
@@ -21465,7 +21473,7 @@
       <c r="AN41" s="6"/>
       <c r="AO41" s="6"/>
     </row>
-    <row r="42" ht="41" spans="1:41">
+    <row r="42" ht="41" hidden="1" spans="1:41">
       <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
@@ -21522,7 +21530,7 @@
       <c r="AN42" s="6"/>
       <c r="AO42" s="6"/>
     </row>
-    <row r="43" ht="41" spans="1:41">
+    <row r="43" ht="41" hidden="1" spans="1:41">
       <c r="A43" s="3" t="s">
         <v>150</v>
       </c>
@@ -21579,7 +21587,7 @@
       <c r="AN43" s="6"/>
       <c r="AO43" s="6"/>
     </row>
-    <row r="44" ht="41" spans="1:41">
+    <row r="44" ht="41" hidden="1" spans="1:41">
       <c r="A44" s="3" t="s">
         <v>152</v>
       </c>
@@ -21636,7 +21644,7 @@
       <c r="AN44" s="6"/>
       <c r="AO44" s="6"/>
     </row>
-    <row r="45" ht="41" spans="1:41">
+    <row r="45" ht="41" hidden="1" spans="1:41">
       <c r="A45" s="3" t="s">
         <v>155</v>
       </c>
@@ -21693,7 +21701,7 @@
       <c r="AN45" s="6"/>
       <c r="AO45" s="6"/>
     </row>
-    <row r="46" ht="41" spans="1:41">
+    <row r="46" ht="41" hidden="1" spans="1:41">
       <c r="A46" s="3" t="s">
         <v>158</v>
       </c>
@@ -21750,7 +21758,7 @@
       <c r="AN46" s="6"/>
       <c r="AO46" s="6"/>
     </row>
-    <row r="47" ht="41" spans="1:41">
+    <row r="47" ht="41" hidden="1" spans="1:41">
       <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
@@ -21807,7 +21815,7 @@
       <c r="AN47" s="6"/>
       <c r="AO47" s="6"/>
     </row>
-    <row r="48" ht="41" spans="1:41">
+    <row r="48" ht="41" hidden="1" spans="1:41">
       <c r="A48" s="3" t="s">
         <v>164</v>
       </c>
@@ -21864,7 +21872,7 @@
       <c r="AN48" s="6"/>
       <c r="AO48" s="6"/>
     </row>
-    <row r="49" ht="28" spans="1:41">
+    <row r="49" ht="28" hidden="1" spans="1:41">
       <c r="A49" s="3" t="s">
         <v>166</v>
       </c>
@@ -21921,7 +21929,7 @@
       <c r="AN49" s="6"/>
       <c r="AO49" s="6"/>
     </row>
-    <row r="50" ht="41" spans="1:41">
+    <row r="50" ht="41" hidden="1" spans="1:41">
       <c r="A50" s="3" t="s">
         <v>169</v>
       </c>
@@ -21978,7 +21986,7 @@
       <c r="AN50" s="6"/>
       <c r="AO50" s="6"/>
     </row>
-    <row r="51" ht="41" spans="1:41">
+    <row r="51" ht="41" hidden="1" spans="1:41">
       <c r="A51" s="3" t="s">
         <v>172</v>
       </c>
@@ -22035,7 +22043,7 @@
       <c r="AN51" s="6"/>
       <c r="AO51" s="6"/>
     </row>
-    <row r="52" ht="28" spans="1:41">
+    <row r="52" ht="28" hidden="1" spans="1:41">
       <c r="A52" s="3" t="s">
         <v>175</v>
       </c>
@@ -22092,7 +22100,7 @@
       <c r="AN52" s="6"/>
       <c r="AO52" s="6"/>
     </row>
-    <row r="53" ht="41" spans="1:41">
+    <row r="53" ht="41" hidden="1" spans="1:41">
       <c r="A53" s="3" t="s">
         <v>178</v>
       </c>
@@ -22149,7 +22157,7 @@
       <c r="AN53" s="6"/>
       <c r="AO53" s="6"/>
     </row>
-    <row r="54" ht="41" spans="1:41">
+    <row r="54" ht="41" hidden="1" spans="1:41">
       <c r="A54" s="3" t="s">
         <v>181</v>
       </c>
@@ -22206,7 +22214,7 @@
       <c r="AN54" s="6"/>
       <c r="AO54" s="6"/>
     </row>
-    <row r="55" ht="41" spans="1:41">
+    <row r="55" ht="41" hidden="1" spans="1:41">
       <c r="A55" s="3" t="s">
         <v>184</v>
       </c>
@@ -22263,7 +22271,7 @@
       <c r="AN55" s="6"/>
       <c r="AO55" s="6"/>
     </row>
-    <row r="56" ht="41" spans="1:41">
+    <row r="56" ht="41" hidden="1" spans="1:41">
       <c r="A56" s="3" t="s">
         <v>187</v>
       </c>
@@ -22320,7 +22328,7 @@
       <c r="AN56" s="6"/>
       <c r="AO56" s="6"/>
     </row>
-    <row r="57" ht="41" spans="1:41">
+    <row r="57" ht="41" hidden="1" spans="1:41">
       <c r="A57" s="3" t="s">
         <v>190</v>
       </c>
@@ -22377,7 +22385,7 @@
       <c r="AN57" s="6"/>
       <c r="AO57" s="6"/>
     </row>
-    <row r="58" ht="41" spans="1:41">
+    <row r="58" ht="41" hidden="1" spans="1:41">
       <c r="A58" s="3" t="s">
         <v>192</v>
       </c>
@@ -22434,7 +22442,7 @@
       <c r="AN58" s="6"/>
       <c r="AO58" s="6"/>
     </row>
-    <row r="59" ht="41" spans="1:41">
+    <row r="59" ht="41" hidden="1" spans="1:41">
       <c r="A59" s="3" t="s">
         <v>194</v>
       </c>
@@ -22491,7 +22499,7 @@
       <c r="AN59" s="6"/>
       <c r="AO59" s="6"/>
     </row>
-    <row r="60" ht="41" spans="1:41">
+    <row r="60" ht="41" hidden="1" spans="1:41">
       <c r="A60" s="3" t="s">
         <v>196</v>
       </c>
@@ -22548,7 +22556,7 @@
       <c r="AN60" s="6"/>
       <c r="AO60" s="6"/>
     </row>
-    <row r="61" ht="41" spans="1:41">
+    <row r="61" ht="41" hidden="1" spans="1:41">
       <c r="A61" s="3" t="s">
         <v>198</v>
       </c>
@@ -22605,7 +22613,7 @@
       <c r="AN61" s="6"/>
       <c r="AO61" s="6"/>
     </row>
-    <row r="62" ht="41" spans="1:41">
+    <row r="62" ht="41" hidden="1" spans="1:41">
       <c r="A62" s="3" t="s">
         <v>201</v>
       </c>
@@ -22662,7 +22670,7 @@
       <c r="AN62" s="6"/>
       <c r="AO62" s="6"/>
     </row>
-    <row r="63" ht="41" spans="1:41">
+    <row r="63" ht="41" hidden="1" spans="1:41">
       <c r="A63" s="3" t="s">
         <v>204</v>
       </c>
@@ -22719,7 +22727,7 @@
       <c r="AN63" s="6"/>
       <c r="AO63" s="6"/>
     </row>
-    <row r="64" ht="41" spans="1:41">
+    <row r="64" ht="41" hidden="1" spans="1:41">
       <c r="A64" s="3" t="s">
         <v>207</v>
       </c>
@@ -22853,7 +22861,7 @@
       <c r="AN65" s="6"/>
       <c r="AO65" s="6"/>
     </row>
-    <row r="66" ht="41" spans="1:41">
+    <row r="66" ht="41" hidden="1" spans="1:41">
       <c r="A66" s="3" t="s">
         <v>211</v>
       </c>
@@ -22910,7 +22918,7 @@
       <c r="AN66" s="6"/>
       <c r="AO66" s="6"/>
     </row>
-    <row r="67" ht="41" spans="1:41">
+    <row r="67" ht="41" hidden="1" spans="1:41">
       <c r="A67" s="3" t="s">
         <v>213</v>
       </c>
@@ -22967,7 +22975,7 @@
       <c r="AN67" s="6"/>
       <c r="AO67" s="6"/>
     </row>
-    <row r="68" ht="28" spans="1:41">
+    <row r="68" ht="28" hidden="1" spans="1:41">
       <c r="A68" s="3" t="s">
         <v>215</v>
       </c>
@@ -23024,7 +23032,7 @@
       <c r="AN68" s="6"/>
       <c r="AO68" s="6"/>
     </row>
-    <row r="69" ht="41" spans="1:41">
+    <row r="69" ht="41" hidden="1" spans="1:41">
       <c r="A69" s="3" t="s">
         <v>218</v>
       </c>
@@ -23081,7 +23089,7 @@
       <c r="AN69" s="6"/>
       <c r="AO69" s="6"/>
     </row>
-    <row r="70" ht="41" spans="1:41">
+    <row r="70" ht="41" hidden="1" spans="1:41">
       <c r="A70" s="3" t="s">
         <v>221</v>
       </c>
@@ -23138,7 +23146,7 @@
       <c r="AN70" s="6"/>
       <c r="AO70" s="6"/>
     </row>
-    <row r="71" ht="41" spans="1:41">
+    <row r="71" ht="41" hidden="1" spans="1:41">
       <c r="A71" s="3" t="s">
         <v>224</v>
       </c>
@@ -23195,7 +23203,7 @@
       <c r="AN71" s="6"/>
       <c r="AO71" s="6"/>
     </row>
-    <row r="72" ht="28" spans="1:41">
+    <row r="72" ht="28" hidden="1" spans="1:41">
       <c r="A72" s="3" t="s">
         <v>227</v>
       </c>
@@ -23252,7 +23260,7 @@
       <c r="AN72" s="6"/>
       <c r="AO72" s="6"/>
     </row>
-    <row r="73" ht="41" spans="1:41">
+    <row r="73" ht="41" hidden="1" spans="1:41">
       <c r="A73" s="3" t="s">
         <v>230</v>
       </c>
@@ -23366,7 +23374,7 @@
       <c r="AN74" s="6"/>
       <c r="AO74" s="6"/>
     </row>
-    <row r="75" ht="41" spans="1:41">
+    <row r="75" ht="41" hidden="1" spans="1:41">
       <c r="A75" s="3" t="s">
         <v>236</v>
       </c>
@@ -23423,7 +23431,7 @@
       <c r="AN75" s="6"/>
       <c r="AO75" s="6"/>
     </row>
-    <row r="76" ht="41" spans="1:41">
+    <row r="76" ht="41" hidden="1" spans="1:41">
       <c r="A76" s="3" t="s">
         <v>239</v>
       </c>
@@ -23480,7 +23488,7 @@
       <c r="AN76" s="6"/>
       <c r="AO76" s="6"/>
     </row>
-    <row r="77" ht="41" spans="1:41">
+    <row r="77" ht="41" hidden="1" spans="1:41">
       <c r="A77" s="3" t="s">
         <v>242</v>
       </c>
@@ -23586,7 +23594,7 @@
         <v>17.64</v>
       </c>
       <c r="Q78" s="19">
-        <v>21.87</v>
+        <v>23.13</v>
       </c>
       <c r="R78" s="19">
         <v>20.4</v>
@@ -23606,7 +23614,7 @@
       </c>
       <c r="AC78" s="7">
         <f>(Q78-R78)/Q78</f>
-        <v>0.0672153635116599</v>
+        <v>0.118028534370947</v>
       </c>
       <c r="AD78" s="6"/>
       <c r="AE78" s="6"/>
@@ -23621,7 +23629,7 @@
       <c r="AN78" s="6"/>
       <c r="AO78" s="6"/>
     </row>
-    <row r="79" ht="28" spans="1:41">
+    <row r="79" ht="28" hidden="1" spans="1:41">
       <c r="A79" s="3" t="s">
         <v>247</v>
       </c>
@@ -23678,7 +23686,7 @@
       <c r="AN79" s="6"/>
       <c r="AO79" s="6"/>
     </row>
-    <row r="80" ht="41" spans="1:41">
+    <row r="80" ht="41" hidden="1" spans="1:41">
       <c r="A80" s="3" t="s">
         <v>249</v>
       </c>
@@ -23735,7 +23743,7 @@
       <c r="AN80" s="6"/>
       <c r="AO80" s="6"/>
     </row>
-    <row r="81" ht="41" spans="1:41">
+    <row r="81" ht="41" hidden="1" spans="1:41">
       <c r="A81" s="3" t="s">
         <v>252</v>
       </c>
@@ -23792,7 +23800,7 @@
       <c r="AN81" s="6"/>
       <c r="AO81" s="6"/>
     </row>
-    <row r="82" ht="41" spans="1:41">
+    <row r="82" ht="41" hidden="1" spans="1:41">
       <c r="A82" s="3" t="s">
         <v>254</v>
       </c>
@@ -23849,7 +23857,7 @@
       <c r="AN82" s="6"/>
       <c r="AO82" s="6"/>
     </row>
-    <row r="83" ht="28" spans="1:41">
+    <row r="83" ht="28" hidden="1" spans="1:41">
       <c r="A83" s="3" t="s">
         <v>256</v>
       </c>
@@ -23906,7 +23914,7 @@
       <c r="AN83" s="6"/>
       <c r="AO83" s="6"/>
     </row>
-    <row r="84" ht="41" spans="1:41">
+    <row r="84" ht="41" hidden="1" spans="1:41">
       <c r="A84" s="3" t="s">
         <v>259</v>
       </c>
@@ -23963,7 +23971,7 @@
       <c r="AN84" s="6"/>
       <c r="AO84" s="6"/>
     </row>
-    <row r="85" ht="41" spans="1:41">
+    <row r="85" ht="41" hidden="1" spans="1:41">
       <c r="A85" s="3" t="s">
         <v>261</v>
       </c>
@@ -24020,7 +24028,7 @@
       <c r="AN85" s="6"/>
       <c r="AO85" s="6"/>
     </row>
-    <row r="86" ht="28" spans="1:41">
+    <row r="86" ht="28" hidden="1" spans="1:41">
       <c r="A86" s="3" t="s">
         <v>264</v>
       </c>
@@ -24077,7 +24085,7 @@
       <c r="AN86" s="6"/>
       <c r="AO86" s="6"/>
     </row>
-    <row r="87" ht="28" spans="1:41">
+    <row r="87" ht="28" hidden="1" spans="1:41">
       <c r="A87" s="3" t="s">
         <v>266</v>
       </c>
@@ -24134,7 +24142,7 @@
       <c r="AN87" s="6"/>
       <c r="AO87" s="6"/>
     </row>
-    <row r="88" ht="41" spans="1:41">
+    <row r="88" ht="41" hidden="1" spans="1:41">
       <c r="A88" s="3" t="s">
         <v>269</v>
       </c>
@@ -24191,7 +24199,7 @@
       <c r="AN88" s="6"/>
       <c r="AO88" s="6"/>
     </row>
-    <row r="89" ht="41" spans="1:41">
+    <row r="89" ht="41" hidden="1" spans="1:41">
       <c r="A89" s="3" t="s">
         <v>271</v>
       </c>
@@ -24248,7 +24256,7 @@
       <c r="AN89" s="6"/>
       <c r="AO89" s="6"/>
     </row>
-    <row r="90" ht="41" spans="1:41">
+    <row r="90" ht="41" hidden="1" spans="1:41">
       <c r="A90" s="3" t="s">
         <v>273</v>
       </c>
@@ -24305,7 +24313,7 @@
       <c r="AN90" s="6"/>
       <c r="AO90" s="6"/>
     </row>
-    <row r="91" ht="41" spans="1:41">
+    <row r="91" ht="41" hidden="1" spans="1:41">
       <c r="A91" s="3" t="s">
         <v>276</v>
       </c>
@@ -24389,7 +24397,7 @@
       <c r="AN91" s="6"/>
       <c r="AO91" s="6"/>
     </row>
-    <row r="92" ht="28" spans="1:41">
+    <row r="92" ht="28" hidden="1" spans="1:41">
       <c r="A92" s="3" t="s">
         <v>278</v>
       </c>
@@ -24446,7 +24454,7 @@
       <c r="AN92" s="6"/>
       <c r="AO92" s="6"/>
     </row>
-    <row r="93" ht="41" spans="1:41">
+    <row r="93" ht="41" hidden="1" spans="1:41">
       <c r="A93" s="3" t="s">
         <v>281</v>
       </c>
@@ -24503,7 +24511,7 @@
       <c r="AN93" s="6"/>
       <c r="AO93" s="6"/>
     </row>
-    <row r="94" ht="41" spans="1:41">
+    <row r="94" ht="41" hidden="1" spans="1:41">
       <c r="A94" s="3" t="s">
         <v>283</v>
       </c>
@@ -24560,7 +24568,7 @@
       <c r="AN94" s="6"/>
       <c r="AO94" s="6"/>
     </row>
-    <row r="95" ht="41" spans="1:41">
+    <row r="95" ht="41" hidden="1" spans="1:41">
       <c r="A95" s="3" t="s">
         <v>285</v>
       </c>
@@ -24617,7 +24625,7 @@
       <c r="AN95" s="6"/>
       <c r="AO95" s="6"/>
     </row>
-    <row r="96" ht="41" spans="1:41">
+    <row r="96" ht="41" hidden="1" spans="1:41">
       <c r="A96" s="3" t="s">
         <v>287</v>
       </c>
@@ -24674,7 +24682,7 @@
       <c r="AN96" s="6"/>
       <c r="AO96" s="6"/>
     </row>
-    <row r="97" ht="41" spans="1:41">
+    <row r="97" ht="41" hidden="1" spans="1:41">
       <c r="A97" s="3" t="s">
         <v>289</v>
       </c>
@@ -24731,7 +24739,7 @@
       <c r="AN97" s="6"/>
       <c r="AO97" s="6"/>
     </row>
-    <row r="98" ht="41" spans="1:41">
+    <row r="98" ht="41" hidden="1" spans="1:41">
       <c r="A98" s="3" t="s">
         <v>292</v>
       </c>
@@ -24788,7 +24796,7 @@
       <c r="AN98" s="6"/>
       <c r="AO98" s="6"/>
     </row>
-    <row r="99" ht="41" spans="1:41">
+    <row r="99" ht="41" hidden="1" spans="1:41">
       <c r="A99" s="3" t="s">
         <v>295</v>
       </c>
@@ -24845,7 +24853,7 @@
       <c r="AN99" s="6"/>
       <c r="AO99" s="6"/>
     </row>
-    <row r="100" ht="28" spans="1:41">
+    <row r="100" ht="28" hidden="1" spans="1:41">
       <c r="A100" s="3" t="s">
         <v>297</v>
       </c>
@@ -24902,7 +24910,7 @@
       <c r="AN100" s="6"/>
       <c r="AO100" s="6"/>
     </row>
-    <row r="101" ht="41" spans="1:41">
+    <row r="101" ht="41" hidden="1" spans="1:41">
       <c r="A101" s="3" t="s">
         <v>300</v>
       </c>
@@ -24959,7 +24967,7 @@
       <c r="AN101" s="6"/>
       <c r="AO101" s="6"/>
     </row>
-    <row r="102" ht="41" spans="1:41">
+    <row r="102" ht="41" hidden="1" spans="1:41">
       <c r="A102" s="3" t="s">
         <v>302</v>
       </c>
@@ -25016,7 +25024,7 @@
       <c r="AN102" s="6"/>
       <c r="AO102" s="6"/>
     </row>
-    <row r="103" ht="41" spans="1:41">
+    <row r="103" ht="41" hidden="1" spans="1:41">
       <c r="A103" s="3" t="s">
         <v>304</v>
       </c>
@@ -25073,7 +25081,7 @@
       <c r="AN103" s="6"/>
       <c r="AO103" s="6"/>
     </row>
-    <row r="104" ht="28" spans="1:41">
+    <row r="104" ht="28" hidden="1" spans="1:41">
       <c r="A104" s="3" t="s">
         <v>306</v>
       </c>
@@ -25130,7 +25138,7 @@
       <c r="AN104" s="6"/>
       <c r="AO104" s="6"/>
     </row>
-    <row r="105" ht="41" spans="1:41">
+    <row r="105" ht="41" hidden="1" spans="1:41">
       <c r="A105" s="3" t="s">
         <v>308</v>
       </c>
@@ -25187,7 +25195,7 @@
       <c r="AN105" s="6"/>
       <c r="AO105" s="6"/>
     </row>
-    <row r="106" ht="41" spans="1:41">
+    <row r="106" ht="41" hidden="1" spans="1:41">
       <c r="A106" s="3" t="s">
         <v>310</v>
       </c>
@@ -25244,7 +25252,7 @@
       <c r="AN106" s="6"/>
       <c r="AO106" s="6"/>
     </row>
-    <row r="107" ht="28" spans="1:41">
+    <row r="107" ht="28" hidden="1" spans="1:41">
       <c r="A107" s="3" t="s">
         <v>312</v>
       </c>
@@ -25358,7 +25366,7 @@
       <c r="AN108" s="6"/>
       <c r="AO108" s="6"/>
     </row>
-    <row r="109" ht="41" spans="1:41">
+    <row r="109" ht="41" hidden="1" spans="1:41">
       <c r="A109" s="3" t="s">
         <v>317</v>
       </c>
@@ -25415,7 +25423,7 @@
       <c r="AN109" s="6"/>
       <c r="AO109" s="6"/>
     </row>
-    <row r="110" ht="41" spans="1:41">
+    <row r="110" ht="41" hidden="1" spans="1:41">
       <c r="A110" s="3" t="s">
         <v>320</v>
       </c>
@@ -25472,7 +25480,7 @@
       <c r="AN110" s="6"/>
       <c r="AO110" s="6"/>
     </row>
-    <row r="111" ht="41" spans="1:41">
+    <row r="111" ht="41" hidden="1" spans="1:41">
       <c r="A111" s="3" t="s">
         <v>323</v>
       </c>
@@ -25529,7 +25537,7 @@
       <c r="AN111" s="6"/>
       <c r="AO111" s="6"/>
     </row>
-    <row r="112" ht="41" spans="1:41">
+    <row r="112" ht="41" hidden="1" spans="1:41">
       <c r="A112" s="3" t="s">
         <v>326</v>
       </c>
@@ -25586,7 +25594,7 @@
       <c r="AN112" s="6"/>
       <c r="AO112" s="6"/>
     </row>
-    <row r="113" ht="41" spans="1:41">
+    <row r="113" ht="41" hidden="1" spans="1:41">
       <c r="A113" s="3" t="s">
         <v>328</v>
       </c>
@@ -25643,7 +25651,7 @@
       <c r="AN113" s="6"/>
       <c r="AO113" s="6"/>
     </row>
-    <row r="114" ht="41" spans="1:41">
+    <row r="114" ht="41" hidden="1" spans="1:41">
       <c r="A114" s="3" t="s">
         <v>330</v>
       </c>
@@ -25700,7 +25708,7 @@
       <c r="AN114" s="6"/>
       <c r="AO114" s="6"/>
     </row>
-    <row r="115" ht="41" spans="1:41">
+    <row r="115" ht="41" hidden="1" spans="1:41">
       <c r="A115" s="3" t="s">
         <v>333</v>
       </c>
@@ -25757,7 +25765,7 @@
       <c r="AN115" s="6"/>
       <c r="AO115" s="6"/>
     </row>
-    <row r="116" ht="41" spans="1:41">
+    <row r="116" ht="41" hidden="1" spans="1:41">
       <c r="A116" s="3" t="s">
         <v>335</v>
       </c>
@@ -25814,7 +25822,7 @@
       <c r="AN116" s="6"/>
       <c r="AO116" s="6"/>
     </row>
-    <row r="117" ht="41" spans="1:41">
+    <row r="117" ht="41" hidden="1" spans="1:41">
       <c r="A117" s="3" t="s">
         <v>338</v>
       </c>
@@ -25871,7 +25879,7 @@
       <c r="AN117" s="6"/>
       <c r="AO117" s="6"/>
     </row>
-    <row r="118" ht="41" spans="1:41">
+    <row r="118" ht="41" hidden="1" spans="1:41">
       <c r="A118" s="3" t="s">
         <v>340</v>
       </c>
@@ -25928,7 +25936,7 @@
       <c r="AN118" s="6"/>
       <c r="AO118" s="6"/>
     </row>
-    <row r="119" ht="41" spans="1:41">
+    <row r="119" ht="41" hidden="1" spans="1:41">
       <c r="A119" s="3" t="s">
         <v>343</v>
       </c>
@@ -25985,7 +25993,7 @@
       <c r="AN119" s="6"/>
       <c r="AO119" s="6"/>
     </row>
-    <row r="120" ht="41" spans="1:41">
+    <row r="120" ht="41" hidden="1" spans="1:41">
       <c r="A120" s="3" t="s">
         <v>346</v>
       </c>
@@ -26042,7 +26050,7 @@
       <c r="AN120" s="6"/>
       <c r="AO120" s="6"/>
     </row>
-    <row r="121" ht="41" spans="1:41">
+    <row r="121" ht="41" hidden="1" spans="1:41">
       <c r="A121" s="3" t="s">
         <v>348</v>
       </c>
@@ -26099,7 +26107,7 @@
       <c r="AN121" s="6"/>
       <c r="AO121" s="6"/>
     </row>
-    <row r="122" ht="41" spans="1:41">
+    <row r="122" ht="41" hidden="1" spans="1:41">
       <c r="A122" s="3" t="s">
         <v>350</v>
       </c>
@@ -26156,7 +26164,7 @@
       <c r="AN122" s="6"/>
       <c r="AO122" s="6"/>
     </row>
-    <row r="123" ht="41" spans="1:41">
+    <row r="123" ht="41" hidden="1" spans="1:41">
       <c r="A123" s="3" t="s">
         <v>353</v>
       </c>
@@ -26213,7 +26221,7 @@
       <c r="AN123" s="6"/>
       <c r="AO123" s="6"/>
     </row>
-    <row r="124" ht="28" spans="1:41">
+    <row r="124" ht="28" hidden="1" spans="1:41">
       <c r="A124" s="3" t="s">
         <v>355</v>
       </c>
@@ -26270,7 +26278,7 @@
       <c r="AN124" s="6"/>
       <c r="AO124" s="6"/>
     </row>
-    <row r="125" ht="41" spans="1:41">
+    <row r="125" ht="41" hidden="1" spans="1:41">
       <c r="A125" s="3" t="s">
         <v>358</v>
       </c>
@@ -26327,7 +26335,7 @@
       <c r="AN125" s="6"/>
       <c r="AO125" s="6"/>
     </row>
-    <row r="126" ht="41" spans="1:41">
+    <row r="126" ht="41" hidden="1" spans="1:41">
       <c r="A126" s="3" t="s">
         <v>361</v>
       </c>
@@ -26384,7 +26392,7 @@
       <c r="AN126" s="6"/>
       <c r="AO126" s="6"/>
     </row>
-    <row r="127" ht="28" spans="1:41">
+    <row r="127" ht="28" hidden="1" spans="1:41">
       <c r="A127" s="3" t="s">
         <v>363</v>
       </c>
@@ -26441,7 +26449,7 @@
       <c r="AN127" s="6"/>
       <c r="AO127" s="6"/>
     </row>
-    <row r="128" ht="41" spans="1:41">
+    <row r="128" ht="41" hidden="1" spans="1:41">
       <c r="A128" s="3" t="s">
         <v>366</v>
       </c>
@@ -26498,7 +26506,7 @@
       <c r="AN128" s="6"/>
       <c r="AO128" s="6"/>
     </row>
-    <row r="129" ht="28" spans="1:41">
+    <row r="129" ht="28" hidden="1" spans="1:41">
       <c r="A129" s="3" t="s">
         <v>368</v>
       </c>
@@ -26555,7 +26563,7 @@
       <c r="AN129" s="6"/>
       <c r="AO129" s="6"/>
     </row>
-    <row r="130" ht="28" spans="1:41">
+    <row r="130" ht="28" hidden="1" spans="1:41">
       <c r="A130" s="3" t="s">
         <v>370</v>
       </c>
@@ -26612,7 +26620,7 @@
       <c r="AN130" s="6"/>
       <c r="AO130" s="6"/>
     </row>
-    <row r="131" ht="41" spans="1:41">
+    <row r="131" ht="41" hidden="1" spans="1:41">
       <c r="A131" s="3" t="s">
         <v>372</v>
       </c>
@@ -26669,7 +26677,7 @@
       <c r="AN131" s="6"/>
       <c r="AO131" s="6"/>
     </row>
-    <row r="132" ht="28" spans="1:41">
+    <row r="132" ht="28" hidden="1" spans="1:41">
       <c r="A132" s="3" t="s">
         <v>375</v>
       </c>
@@ -26726,7 +26734,7 @@
       <c r="AN132" s="6"/>
       <c r="AO132" s="6"/>
     </row>
-    <row r="133" ht="41" spans="1:41">
+    <row r="133" ht="41" hidden="1" spans="1:41">
       <c r="A133" s="3" t="s">
         <v>377</v>
       </c>
@@ -26783,7 +26791,7 @@
       <c r="AN133" s="6"/>
       <c r="AO133" s="6"/>
     </row>
-    <row r="134" ht="41" spans="1:41">
+    <row r="134" ht="41" hidden="1" spans="1:41">
       <c r="A134" s="3" t="s">
         <v>379</v>
       </c>
@@ -26840,7 +26848,7 @@
       <c r="AN134" s="6"/>
       <c r="AO134" s="6"/>
     </row>
-    <row r="135" ht="41" spans="1:41">
+    <row r="135" ht="41" hidden="1" spans="1:41">
       <c r="A135" s="3" t="s">
         <v>382</v>
       </c>
@@ -26897,7 +26905,7 @@
       <c r="AN135" s="6"/>
       <c r="AO135" s="6"/>
     </row>
-    <row r="136" ht="28" spans="1:41">
+    <row r="136" ht="28" hidden="1" spans="1:41">
       <c r="A136" s="3" t="s">
         <v>384</v>
       </c>
@@ -27031,7 +27039,7 @@
       <c r="AN137" s="6"/>
       <c r="AO137" s="6"/>
     </row>
-    <row r="138" ht="41" spans="1:41">
+    <row r="138" ht="41" hidden="1" spans="1:41">
       <c r="A138" s="3" t="s">
         <v>389</v>
       </c>
@@ -27088,7 +27096,7 @@
       <c r="AN138" s="6"/>
       <c r="AO138" s="6"/>
     </row>
-    <row r="139" ht="28" spans="1:41">
+    <row r="139" ht="28" hidden="1" spans="1:41">
       <c r="A139" s="3" t="s">
         <v>391</v>
       </c>
@@ -27145,7 +27153,7 @@
       <c r="AN139" s="6"/>
       <c r="AO139" s="6"/>
     </row>
-    <row r="140" ht="28" spans="1:41">
+    <row r="140" ht="28" hidden="1" spans="1:41">
       <c r="A140" s="3" t="s">
         <v>393</v>
       </c>
@@ -27202,7 +27210,7 @@
       <c r="AN140" s="6"/>
       <c r="AO140" s="6"/>
     </row>
-    <row r="141" ht="28" spans="1:41">
+    <row r="141" ht="28" hidden="1" spans="1:41">
       <c r="A141" s="3" t="s">
         <v>396</v>
       </c>
@@ -27259,7 +27267,7 @@
       <c r="AN141" s="6"/>
       <c r="AO141" s="6"/>
     </row>
-    <row r="142" ht="28" spans="1:41">
+    <row r="142" ht="28" hidden="1" spans="1:41">
       <c r="A142" s="3" t="s">
         <v>399</v>
       </c>
@@ -27316,7 +27324,7 @@
       <c r="AN142" s="6"/>
       <c r="AO142" s="6"/>
     </row>
-    <row r="143" ht="28" spans="1:41">
+    <row r="143" ht="28" hidden="1" spans="1:41">
       <c r="A143" s="3" t="s">
         <v>401</v>
       </c>
@@ -27373,7 +27381,7 @@
       <c r="AN143" s="6"/>
       <c r="AO143" s="6"/>
     </row>
-    <row r="144" ht="41" spans="1:41">
+    <row r="144" ht="41" hidden="1" spans="1:41">
       <c r="A144" s="3" t="s">
         <v>403</v>
       </c>
@@ -27430,7 +27438,7 @@
       <c r="AN144" s="6"/>
       <c r="AO144" s="6"/>
     </row>
-    <row r="145" ht="41" spans="1:41">
+    <row r="145" ht="41" hidden="1" spans="1:41">
       <c r="A145" s="3" t="s">
         <v>405</v>
       </c>
@@ -27487,7 +27495,7 @@
       <c r="AN145" s="6"/>
       <c r="AO145" s="6"/>
     </row>
-    <row r="146" ht="41" spans="1:41">
+    <row r="146" ht="41" hidden="1" spans="1:41">
       <c r="A146" s="3" t="s">
         <v>408</v>
       </c>
@@ -27544,7 +27552,7 @@
       <c r="AN146" s="6"/>
       <c r="AO146" s="6"/>
     </row>
-    <row r="147" ht="41" spans="1:41">
+    <row r="147" ht="41" hidden="1" spans="1:41">
       <c r="A147" s="3" t="s">
         <v>410</v>
       </c>
@@ -27601,7 +27609,7 @@
       <c r="AN147" s="6"/>
       <c r="AO147" s="6"/>
     </row>
-    <row r="148" ht="41" spans="1:41">
+    <row r="148" ht="41" hidden="1" spans="1:41">
       <c r="A148" s="3" t="s">
         <v>412</v>
       </c>
@@ -27658,7 +27666,7 @@
       <c r="AN148" s="6"/>
       <c r="AO148" s="6"/>
     </row>
-    <row r="149" ht="41" spans="1:41">
+    <row r="149" ht="41" hidden="1" spans="1:41">
       <c r="A149" s="3" t="s">
         <v>414</v>
       </c>
@@ -27715,7 +27723,7 @@
       <c r="AN149" s="6"/>
       <c r="AO149" s="6"/>
     </row>
-    <row r="150" ht="41" spans="1:41">
+    <row r="150" ht="41" hidden="1" spans="1:41">
       <c r="A150" s="3" t="s">
         <v>416</v>
       </c>
@@ -27772,7 +27780,7 @@
       <c r="AN150" s="6"/>
       <c r="AO150" s="6"/>
     </row>
-    <row r="151" ht="41" spans="1:41">
+    <row r="151" ht="41" hidden="1" spans="1:41">
       <c r="A151" s="3" t="s">
         <v>418</v>
       </c>
@@ -27829,7 +27837,7 @@
       <c r="AN151" s="6"/>
       <c r="AO151" s="6"/>
     </row>
-    <row r="152" ht="28" spans="1:41">
+    <row r="152" ht="28" hidden="1" spans="1:41">
       <c r="A152" s="3" t="s">
         <v>420</v>
       </c>
@@ -27886,7 +27894,7 @@
       <c r="AN152" s="6"/>
       <c r="AO152" s="6"/>
     </row>
-    <row r="153" ht="41" spans="1:41">
+    <row r="153" ht="41" hidden="1" spans="1:41">
       <c r="A153" s="3" t="s">
         <v>422</v>
       </c>
@@ -27943,7 +27951,7 @@
       <c r="AN153" s="6"/>
       <c r="AO153" s="6"/>
     </row>
-    <row r="154" ht="41" spans="1:41">
+    <row r="154" ht="41" hidden="1" spans="1:41">
       <c r="A154" s="3" t="s">
         <v>424</v>
       </c>
@@ -28000,7 +28008,7 @@
       <c r="AN154" s="6"/>
       <c r="AO154" s="6"/>
     </row>
-    <row r="155" ht="41" spans="1:41">
+    <row r="155" ht="41" hidden="1" spans="1:41">
       <c r="A155" s="3" t="s">
         <v>426</v>
       </c>
@@ -28057,7 +28065,7 @@
       <c r="AN155" s="6"/>
       <c r="AO155" s="6"/>
     </row>
-    <row r="156" ht="41" spans="1:41">
+    <row r="156" ht="41" hidden="1" spans="1:41">
       <c r="A156" s="3" t="s">
         <v>428</v>
       </c>
@@ -28114,7 +28122,7 @@
       <c r="AN156" s="6"/>
       <c r="AO156" s="6"/>
     </row>
-    <row r="157" ht="28" spans="1:41">
+    <row r="157" ht="28" hidden="1" spans="1:41">
       <c r="A157" s="3" t="s">
         <v>430</v>
       </c>
@@ -28171,7 +28179,7 @@
       <c r="AN157" s="6"/>
       <c r="AO157" s="6"/>
     </row>
-    <row r="158" ht="41" spans="1:41">
+    <row r="158" ht="41" hidden="1" spans="1:41">
       <c r="A158" s="3" t="s">
         <v>432</v>
       </c>
@@ -28312,7 +28320,7 @@
       <c r="AN159" s="6"/>
       <c r="AO159" s="6"/>
     </row>
-    <row r="160" ht="41" spans="1:41">
+    <row r="160" ht="41" hidden="1" spans="1:41">
       <c r="A160" s="3" t="s">
         <v>437</v>
       </c>
@@ -28369,7 +28377,7 @@
       <c r="AN160" s="6"/>
       <c r="AO160" s="6"/>
     </row>
-    <row r="161" ht="41" spans="1:41">
+    <row r="161" ht="41" hidden="1" spans="1:41">
       <c r="A161" s="3" t="s">
         <v>440</v>
       </c>
@@ -28426,7 +28434,7 @@
       <c r="AN161" s="6"/>
       <c r="AO161" s="6"/>
     </row>
-    <row r="162" ht="28" spans="1:41">
+    <row r="162" ht="28" hidden="1" spans="1:41">
       <c r="A162" s="3" t="s">
         <v>442</v>
       </c>
@@ -28483,7 +28491,7 @@
       <c r="AN162" s="6"/>
       <c r="AO162" s="6"/>
     </row>
-    <row r="163" ht="41" spans="1:41">
+    <row r="163" ht="41" hidden="1" spans="1:41">
       <c r="A163" s="3" t="s">
         <v>445</v>
       </c>
@@ -28540,7 +28548,7 @@
       <c r="AN163" s="6"/>
       <c r="AO163" s="6"/>
     </row>
-    <row r="164" ht="41" spans="1:41">
+    <row r="164" ht="41" hidden="1" spans="1:41">
       <c r="A164" s="3" t="s">
         <v>447</v>
       </c>
@@ -28597,7 +28605,7 @@
       <c r="AN164" s="6"/>
       <c r="AO164" s="6"/>
     </row>
-    <row r="165" ht="41" spans="1:41">
+    <row r="165" ht="41" hidden="1" spans="1:41">
       <c r="A165" s="3" t="s">
         <v>449</v>
       </c>
@@ -28654,7 +28662,7 @@
       <c r="AN165" s="6"/>
       <c r="AO165" s="6"/>
     </row>
-    <row r="166" s="1" customFormat="1" ht="41" spans="1:41">
+    <row r="166" s="1" customFormat="1" ht="41" hidden="1" spans="1:41">
       <c r="A166" s="3" t="s">
         <v>451</v>
       </c>
@@ -28738,7 +28746,7 @@
       <c r="AN166" s="25"/>
       <c r="AO166" s="25"/>
     </row>
-    <row r="167" ht="41" spans="1:41">
+    <row r="167" ht="41" hidden="1" spans="1:41">
       <c r="A167" s="3" t="s">
         <v>453</v>
       </c>
@@ -28795,7 +28803,7 @@
       <c r="AN167" s="6"/>
       <c r="AO167" s="6"/>
     </row>
-    <row r="168" ht="28" spans="1:41">
+    <row r="168" ht="28" hidden="1" spans="1:41">
       <c r="A168" s="3" t="s">
         <v>456</v>
       </c>
@@ -28852,7 +28860,7 @@
       <c r="AN168" s="6"/>
       <c r="AO168" s="6"/>
     </row>
-    <row r="169" ht="41" spans="1:41">
+    <row r="169" ht="41" hidden="1" spans="1:41">
       <c r="A169" s="3" t="s">
         <v>458</v>
       </c>
@@ -28909,7 +28917,7 @@
       <c r="AN169" s="6"/>
       <c r="AO169" s="6"/>
     </row>
-    <row r="170" ht="28" spans="1:41">
+    <row r="170" ht="28" hidden="1" spans="1:41">
       <c r="A170" s="3" t="s">
         <v>460</v>
       </c>
@@ -28966,7 +28974,7 @@
       <c r="AN170" s="6"/>
       <c r="AO170" s="6"/>
     </row>
-    <row r="171" ht="41" spans="1:41">
+    <row r="171" ht="41" hidden="1" spans="1:41">
       <c r="A171" s="3" t="s">
         <v>463</v>
       </c>
@@ -29023,7 +29031,7 @@
       <c r="AN171" s="6"/>
       <c r="AO171" s="6"/>
     </row>
-    <row r="172" ht="28" spans="1:41">
+    <row r="172" ht="28" hidden="1" spans="1:41">
       <c r="A172" s="3" t="s">
         <v>465</v>
       </c>
@@ -29080,7 +29088,7 @@
       <c r="AN172" s="6"/>
       <c r="AO172" s="6"/>
     </row>
-    <row r="173" ht="41" spans="1:41">
+    <row r="173" ht="41" hidden="1" spans="1:41">
       <c r="A173" s="3" t="s">
         <v>468</v>
       </c>
@@ -29137,7 +29145,7 @@
       <c r="AN173" s="6"/>
       <c r="AO173" s="6"/>
     </row>
-    <row r="174" ht="41" spans="1:41">
+    <row r="174" ht="41" hidden="1" spans="1:41">
       <c r="A174" s="3" t="s">
         <v>470</v>
       </c>
@@ -29194,7 +29202,7 @@
       <c r="AN174" s="6"/>
       <c r="AO174" s="6"/>
     </row>
-    <row r="175" ht="41" spans="1:41">
+    <row r="175" ht="41" hidden="1" spans="1:41">
       <c r="A175" s="3" t="s">
         <v>472</v>
       </c>
@@ -29251,7 +29259,7 @@
       <c r="AN175" s="6"/>
       <c r="AO175" s="6"/>
     </row>
-    <row r="176" ht="41" spans="1:41">
+    <row r="176" ht="41" hidden="1" spans="1:41">
       <c r="A176" s="3" t="s">
         <v>474</v>
       </c>
@@ -29308,7 +29316,7 @@
       <c r="AN176" s="6"/>
       <c r="AO176" s="6"/>
     </row>
-    <row r="177" ht="28" spans="1:41">
+    <row r="177" ht="28" hidden="1" spans="1:41">
       <c r="A177" s="3" t="s">
         <v>476</v>
       </c>
@@ -29365,7 +29373,7 @@
       <c r="AN177" s="6"/>
       <c r="AO177" s="6"/>
     </row>
-    <row r="178" ht="41" spans="1:41">
+    <row r="178" ht="41" hidden="1" spans="1:41">
       <c r="A178" s="3" t="s">
         <v>478</v>
       </c>
@@ -29422,7 +29430,7 @@
       <c r="AN178" s="6"/>
       <c r="AO178" s="6"/>
     </row>
-    <row r="179" ht="41" spans="1:41">
+    <row r="179" ht="41" hidden="1" spans="1:41">
       <c r="A179" s="3" t="s">
         <v>481</v>
       </c>
@@ -29479,7 +29487,7 @@
       <c r="AN179" s="6"/>
       <c r="AO179" s="6"/>
     </row>
-    <row r="180" ht="41" spans="1:41">
+    <row r="180" ht="41" hidden="1" spans="1:41">
       <c r="A180" s="3" t="s">
         <v>483</v>
       </c>
@@ -29536,7 +29544,7 @@
       <c r="AN180" s="6"/>
       <c r="AO180" s="6"/>
     </row>
-    <row r="181" ht="41" spans="1:41">
+    <row r="181" ht="41" hidden="1" spans="1:41">
       <c r="A181" s="3" t="s">
         <v>485</v>
       </c>
@@ -29593,7 +29601,7 @@
       <c r="AN181" s="6"/>
       <c r="AO181" s="6"/>
     </row>
-    <row r="182" ht="41" spans="1:41">
+    <row r="182" ht="41" hidden="1" spans="1:41">
       <c r="A182" s="3" t="s">
         <v>487</v>
       </c>
@@ -29741,7 +29749,7 @@
       <c r="AN183" s="6"/>
       <c r="AO183" s="6"/>
     </row>
-    <row r="184" ht="41" spans="1:41">
+    <row r="184" ht="41" hidden="1" spans="1:41">
       <c r="A184" s="3" t="s">
         <v>493</v>
       </c>
@@ -29798,7 +29806,7 @@
       <c r="AN184" s="6"/>
       <c r="AO184" s="6"/>
     </row>
-    <row r="185" ht="41" spans="1:41">
+    <row r="185" ht="41" hidden="1" spans="1:41">
       <c r="A185" s="3" t="s">
         <v>495</v>
       </c>
@@ -29855,7 +29863,7 @@
       <c r="AN185" s="6"/>
       <c r="AO185" s="6"/>
     </row>
-    <row r="186" ht="41" spans="1:41">
+    <row r="186" ht="41" hidden="1" spans="1:41">
       <c r="A186" s="3" t="s">
         <v>497</v>
       </c>
@@ -29912,7 +29920,7 @@
       <c r="AN186" s="6"/>
       <c r="AO186" s="6"/>
     </row>
-    <row r="187" ht="28" spans="1:41">
+    <row r="187" ht="28" hidden="1" spans="1:41">
       <c r="A187" s="3" t="s">
         <v>499</v>
       </c>
@@ -29969,7 +29977,7 @@
       <c r="AN187" s="6"/>
       <c r="AO187" s="6"/>
     </row>
-    <row r="188" ht="41" spans="1:41">
+    <row r="188" ht="41" hidden="1" spans="1:41">
       <c r="A188" s="3" t="s">
         <v>502</v>
       </c>
@@ -30026,7 +30034,7 @@
       <c r="AN188" s="6"/>
       <c r="AO188" s="6"/>
     </row>
-    <row r="189" ht="28" spans="1:41">
+    <row r="189" ht="28" hidden="1" spans="1:41">
       <c r="A189" s="3" t="s">
         <v>505</v>
       </c>
@@ -30083,7 +30091,7 @@
       <c r="AN189" s="6"/>
       <c r="AO189" s="6"/>
     </row>
-    <row r="190" ht="41" spans="1:41">
+    <row r="190" ht="41" hidden="1" spans="1:41">
       <c r="A190" s="3" t="s">
         <v>507</v>
       </c>
@@ -30140,7 +30148,7 @@
       <c r="AN190" s="6"/>
       <c r="AO190" s="6"/>
     </row>
-    <row r="191" ht="41" spans="1:41">
+    <row r="191" ht="41" hidden="1" spans="1:41">
       <c r="A191" s="3" t="s">
         <v>509</v>
       </c>
@@ -30305,7 +30313,7 @@
       <c r="AN193" s="6"/>
       <c r="AO193" s="6"/>
     </row>
-    <row r="194" ht="41" spans="1:41">
+    <row r="194" ht="41" hidden="1" spans="1:41">
       <c r="A194" s="3" t="s">
         <v>516</v>
       </c>
@@ -30362,7 +30370,7 @@
       <c r="AN194" s="6"/>
       <c r="AO194" s="6"/>
     </row>
-    <row r="195" ht="28" spans="1:41">
+    <row r="195" ht="28" hidden="1" spans="1:41">
       <c r="A195" s="3" t="s">
         <v>518</v>
       </c>
@@ -30419,7 +30427,7 @@
       <c r="AN195" s="6"/>
       <c r="AO195" s="6"/>
     </row>
-    <row r="196" ht="41" spans="1:41">
+    <row r="196" ht="41" hidden="1" spans="1:41">
       <c r="A196" s="3" t="s">
         <v>521</v>
       </c>
@@ -30476,7 +30484,7 @@
       <c r="AN196" s="6"/>
       <c r="AO196" s="6"/>
     </row>
-    <row r="197" ht="41" spans="1:41">
+    <row r="197" ht="41" hidden="1" spans="1:41">
       <c r="A197" s="3" t="s">
         <v>524</v>
       </c>
@@ -30533,7 +30541,7 @@
       <c r="AN197" s="6"/>
       <c r="AO197" s="6"/>
     </row>
-    <row r="198" ht="41" spans="1:41">
+    <row r="198" ht="41" hidden="1" spans="1:41">
       <c r="A198" s="3" t="s">
         <v>527</v>
       </c>
@@ -30590,7 +30598,7 @@
       <c r="AN198" s="6"/>
       <c r="AO198" s="6"/>
     </row>
-    <row r="199" ht="41" spans="1:41">
+    <row r="199" ht="41" hidden="1" spans="1:41">
       <c r="A199" s="3" t="s">
         <v>529</v>
       </c>
@@ -30647,7 +30655,7 @@
       <c r="AN199" s="6"/>
       <c r="AO199" s="6"/>
     </row>
-    <row r="200" ht="41" spans="1:41">
+    <row r="200" ht="41" hidden="1" spans="1:41">
       <c r="A200" s="3" t="s">
         <v>531</v>
       </c>
@@ -30704,7 +30712,7 @@
       <c r="AN200" s="6"/>
       <c r="AO200" s="6"/>
     </row>
-    <row r="201" ht="41" spans="1:41">
+    <row r="201" ht="41" hidden="1" spans="1:41">
       <c r="A201" s="3" t="s">
         <v>533</v>
       </c>
@@ -30761,7 +30769,7 @@
       <c r="AN201" s="6"/>
       <c r="AO201" s="6"/>
     </row>
-    <row r="202" ht="41" spans="1:41">
+    <row r="202" ht="41" hidden="1" spans="1:41">
       <c r="A202" s="3" t="s">
         <v>535</v>
       </c>
@@ -30818,7 +30826,7 @@
       <c r="AN202" s="6"/>
       <c r="AO202" s="6"/>
     </row>
-    <row r="203" ht="41" spans="1:41">
+    <row r="203" ht="41" hidden="1" spans="1:41">
       <c r="A203" s="3" t="s">
         <v>538</v>
       </c>
@@ -30875,7 +30883,7 @@
       <c r="AN203" s="6"/>
       <c r="AO203" s="6"/>
     </row>
-    <row r="204" ht="41" spans="1:41">
+    <row r="204" ht="41" hidden="1" spans="1:41">
       <c r="A204" s="3" t="s">
         <v>540</v>
       </c>
@@ -30932,7 +30940,7 @@
       <c r="AN204" s="6"/>
       <c r="AO204" s="6"/>
     </row>
-    <row r="205" ht="41" spans="1:41">
+    <row r="205" ht="41" hidden="1" spans="1:41">
       <c r="A205" s="3" t="s">
         <v>543</v>
       </c>
@@ -30989,7 +30997,7 @@
       <c r="AN205" s="6"/>
       <c r="AO205" s="6"/>
     </row>
-    <row r="206" ht="28" spans="1:41">
+    <row r="206" ht="28" hidden="1" spans="1:41">
       <c r="A206" s="3" t="s">
         <v>545</v>
       </c>
@@ -31046,7 +31054,7 @@
       <c r="AN206" s="6"/>
       <c r="AO206" s="6"/>
     </row>
-    <row r="207" ht="41" spans="1:41">
+    <row r="207" ht="41" hidden="1" spans="1:41">
       <c r="A207" s="3" t="s">
         <v>547</v>
       </c>
@@ -31103,7 +31111,7 @@
       <c r="AN207" s="6"/>
       <c r="AO207" s="6"/>
     </row>
-    <row r="208" ht="41" spans="1:41">
+    <row r="208" ht="41" hidden="1" spans="1:41">
       <c r="A208" s="3" t="s">
         <v>549</v>
       </c>
@@ -31160,7 +31168,7 @@
       <c r="AN208" s="6"/>
       <c r="AO208" s="6"/>
     </row>
-    <row r="209" ht="41" spans="1:41">
+    <row r="209" ht="41" hidden="1" spans="1:41">
       <c r="A209" s="3" t="s">
         <v>551</v>
       </c>
@@ -31217,7 +31225,7 @@
       <c r="AN209" s="6"/>
       <c r="AO209" s="6"/>
     </row>
-    <row r="210" ht="41" spans="1:41">
+    <row r="210" ht="41" hidden="1" spans="1:41">
       <c r="A210" s="3" t="s">
         <v>554</v>
       </c>
@@ -31274,7 +31282,7 @@
       <c r="AN210" s="6"/>
       <c r="AO210" s="6"/>
     </row>
-    <row r="211" ht="28" spans="1:41">
+    <row r="211" ht="28" hidden="1" spans="1:41">
       <c r="A211" s="3" t="s">
         <v>556</v>
       </c>
@@ -31331,7 +31339,7 @@
       <c r="AN211" s="6"/>
       <c r="AO211" s="6"/>
     </row>
-    <row r="212" ht="41" spans="1:41">
+    <row r="212" ht="41" hidden="1" spans="1:41">
       <c r="A212" s="3" t="s">
         <v>559</v>
       </c>
@@ -31388,7 +31396,7 @@
       <c r="AN212" s="6"/>
       <c r="AO212" s="6"/>
     </row>
-    <row r="213" ht="41" spans="1:41">
+    <row r="213" ht="41" hidden="1" spans="1:41">
       <c r="A213" s="3" t="s">
         <v>562</v>
       </c>
@@ -31445,7 +31453,7 @@
       <c r="AN213" s="6"/>
       <c r="AO213" s="6"/>
     </row>
-    <row r="214" ht="41" spans="1:41">
+    <row r="214" ht="41" hidden="1" spans="1:41">
       <c r="A214" s="3" t="s">
         <v>564</v>
       </c>
@@ -31502,7 +31510,7 @@
       <c r="AN214" s="6"/>
       <c r="AO214" s="6"/>
     </row>
-    <row r="215" ht="41" spans="1:41">
+    <row r="215" ht="41" hidden="1" spans="1:41">
       <c r="A215" s="3" t="s">
         <v>566</v>
       </c>
@@ -31559,7 +31567,7 @@
       <c r="AN215" s="6"/>
       <c r="AO215" s="6"/>
     </row>
-    <row r="216" ht="41" spans="1:41">
+    <row r="216" ht="41" hidden="1" spans="1:41">
       <c r="A216" s="3" t="s">
         <v>568</v>
       </c>
@@ -31616,7 +31624,7 @@
       <c r="AN216" s="6"/>
       <c r="AO216" s="6"/>
     </row>
-    <row r="217" ht="41" spans="1:41">
+    <row r="217" ht="41" hidden="1" spans="1:41">
       <c r="A217" s="3" t="s">
         <v>570</v>
       </c>
@@ -31757,7 +31765,7 @@
       <c r="AN218" s="6"/>
       <c r="AO218" s="6"/>
     </row>
-    <row r="219" ht="41" spans="1:41">
+    <row r="219" ht="41" hidden="1" spans="1:41">
       <c r="A219" s="3" t="s">
         <v>575</v>
       </c>
@@ -31814,7 +31822,7 @@
       <c r="AN219" s="6"/>
       <c r="AO219" s="6"/>
     </row>
-    <row r="220" ht="41" spans="1:41">
+    <row r="220" ht="41" hidden="1" spans="1:41">
       <c r="A220" s="3" t="s">
         <v>577</v>
       </c>
@@ -31871,7 +31879,7 @@
       <c r="AN220" s="6"/>
       <c r="AO220" s="6"/>
     </row>
-    <row r="221" ht="41" spans="1:41">
+    <row r="221" ht="41" hidden="1" spans="1:41">
       <c r="A221" s="3" t="s">
         <v>579</v>
       </c>
@@ -31928,7 +31936,7 @@
       <c r="AN221" s="6"/>
       <c r="AO221" s="6"/>
     </row>
-    <row r="222" ht="28" spans="1:41">
+    <row r="222" ht="28" hidden="1" spans="1:41">
       <c r="A222" s="3" t="s">
         <v>581</v>
       </c>
@@ -31985,7 +31993,7 @@
       <c r="AN222" s="6"/>
       <c r="AO222" s="6"/>
     </row>
-    <row r="223" ht="28" spans="1:41">
+    <row r="223" ht="28" hidden="1" spans="1:41">
       <c r="A223" s="3" t="s">
         <v>583</v>
       </c>
@@ -32042,7 +32050,7 @@
       <c r="AN223" s="6"/>
       <c r="AO223" s="6"/>
     </row>
-    <row r="224" ht="28" spans="1:41">
+    <row r="224" ht="28" hidden="1" spans="1:41">
       <c r="A224" s="3" t="s">
         <v>585</v>
       </c>
@@ -32099,7 +32107,7 @@
       <c r="AN224" s="6"/>
       <c r="AO224" s="6"/>
     </row>
-    <row r="225" ht="41" spans="1:41">
+    <row r="225" ht="41" hidden="1" spans="1:41">
       <c r="A225" s="3" t="s">
         <v>587</v>
       </c>
@@ -32156,7 +32164,7 @@
       <c r="AN225" s="6"/>
       <c r="AO225" s="6"/>
     </row>
-    <row r="226" ht="41" spans="1:41">
+    <row r="226" ht="41" hidden="1" spans="1:41">
       <c r="A226" s="3" t="s">
         <v>590</v>
       </c>
@@ -32213,7 +32221,7 @@
       <c r="AN226" s="6"/>
       <c r="AO226" s="6"/>
     </row>
-    <row r="227" ht="28" spans="1:41">
+    <row r="227" ht="28" hidden="1" spans="1:41">
       <c r="A227" s="3" t="s">
         <v>592</v>
       </c>
@@ -32270,7 +32278,7 @@
       <c r="AN227" s="6"/>
       <c r="AO227" s="6"/>
     </row>
-    <row r="228" ht="28" spans="1:41">
+    <row r="228" ht="28" hidden="1" spans="1:41">
       <c r="A228" s="3" t="s">
         <v>594</v>
       </c>
@@ -32384,7 +32392,7 @@
       <c r="AN229" s="6"/>
       <c r="AO229" s="6"/>
     </row>
-    <row r="230" ht="41" spans="1:41">
+    <row r="230" ht="41" hidden="1" spans="1:41">
       <c r="A230" s="3" t="s">
         <v>599</v>
       </c>
@@ -32441,7 +32449,7 @@
       <c r="AN230" s="6"/>
       <c r="AO230" s="6"/>
     </row>
-    <row r="231" ht="41" spans="1:41">
+    <row r="231" ht="41" hidden="1" spans="1:41">
       <c r="A231" s="3" t="s">
         <v>601</v>
       </c>
@@ -32498,7 +32506,7 @@
       <c r="AN231" s="6"/>
       <c r="AO231" s="6"/>
     </row>
-    <row r="232" ht="41" spans="1:41">
+    <row r="232" ht="41" hidden="1" spans="1:41">
       <c r="A232" s="3" t="s">
         <v>603</v>
       </c>
@@ -32555,7 +32563,7 @@
       <c r="AN232" s="6"/>
       <c r="AO232" s="6"/>
     </row>
-    <row r="233" ht="41" spans="1:41">
+    <row r="233" ht="41" hidden="1" spans="1:41">
       <c r="A233" s="3" t="s">
         <v>605</v>
       </c>
@@ -32612,7 +32620,7 @@
       <c r="AN233" s="6"/>
       <c r="AO233" s="6"/>
     </row>
-    <row r="234" ht="41" spans="1:41">
+    <row r="234" ht="41" hidden="1" spans="1:41">
       <c r="A234" s="3" t="s">
         <v>607</v>
       </c>
@@ -32726,7 +32734,7 @@
       <c r="AN235" s="6"/>
       <c r="AO235" s="6"/>
     </row>
-    <row r="236" ht="41" spans="1:41">
+    <row r="236" ht="41" hidden="1" spans="1:41">
       <c r="A236" s="3" t="s">
         <v>611</v>
       </c>
@@ -32783,7 +32791,7 @@
       <c r="AN236" s="6"/>
       <c r="AO236" s="6"/>
     </row>
-    <row r="237" ht="28" spans="1:41">
+    <row r="237" ht="28" hidden="1" spans="1:41">
       <c r="A237" s="3" t="s">
         <v>613</v>
       </c>
@@ -32840,7 +32848,7 @@
       <c r="AN237" s="6"/>
       <c r="AO237" s="6"/>
     </row>
-    <row r="238" ht="41" spans="1:41">
+    <row r="238" ht="41" hidden="1" spans="1:41">
       <c r="A238" s="3" t="s">
         <v>616</v>
       </c>
@@ -32897,7 +32905,7 @@
       <c r="AN238" s="6"/>
       <c r="AO238" s="6"/>
     </row>
-    <row r="239" ht="41" spans="1:41">
+    <row r="239" ht="41" hidden="1" spans="1:41">
       <c r="A239" s="3" t="s">
         <v>618</v>
       </c>
@@ -32954,7 +32962,7 @@
       <c r="AN239" s="6"/>
       <c r="AO239" s="6"/>
     </row>
-    <row r="240" ht="41" spans="1:41">
+    <row r="240" ht="41" hidden="1" spans="1:41">
       <c r="A240" s="3" t="s">
         <v>620</v>
       </c>
@@ -33011,7 +33019,7 @@
       <c r="AN240" s="6"/>
       <c r="AO240" s="6"/>
     </row>
-    <row r="241" ht="41" spans="1:41">
+    <row r="241" ht="41" hidden="1" spans="1:41">
       <c r="A241" s="3" t="s">
         <v>623</v>
       </c>
@@ -33068,7 +33076,7 @@
       <c r="AN241" s="6"/>
       <c r="AO241" s="6"/>
     </row>
-    <row r="242" ht="41" spans="1:41">
+    <row r="242" ht="41" hidden="1" spans="1:41">
       <c r="A242" s="3" t="s">
         <v>625</v>
       </c>
@@ -33125,7 +33133,7 @@
       <c r="AN242" s="6"/>
       <c r="AO242" s="6"/>
     </row>
-    <row r="243" ht="41" spans="1:41">
+    <row r="243" ht="41" hidden="1" spans="1:41">
       <c r="A243" s="3" t="s">
         <v>628</v>
       </c>
@@ -33182,7 +33190,7 @@
       <c r="AN243" s="6"/>
       <c r="AO243" s="6"/>
     </row>
-    <row r="244" ht="41" spans="1:41">
+    <row r="244" ht="41" hidden="1" spans="1:41">
       <c r="A244" s="3" t="s">
         <v>630</v>
       </c>
@@ -33239,7 +33247,7 @@
       <c r="AN244" s="6"/>
       <c r="AO244" s="6"/>
     </row>
-    <row r="245" ht="41" spans="1:41">
+    <row r="245" ht="41" hidden="1" spans="1:41">
       <c r="A245" s="3" t="s">
         <v>632</v>
       </c>
@@ -33296,7 +33304,7 @@
       <c r="AN245" s="6"/>
       <c r="AO245" s="6"/>
     </row>
-    <row r="246" ht="41" spans="1:41">
+    <row r="246" ht="41" hidden="1" spans="1:41">
       <c r="A246" s="3" t="s">
         <v>634</v>
       </c>
@@ -33353,7 +33361,7 @@
       <c r="AN246" s="6"/>
       <c r="AO246" s="6"/>
     </row>
-    <row r="247" ht="41" spans="1:41">
+    <row r="247" ht="41" hidden="1" spans="1:41">
       <c r="A247" s="3" t="s">
         <v>636</v>
       </c>
@@ -33410,7 +33418,7 @@
       <c r="AN247" s="6"/>
       <c r="AO247" s="6"/>
     </row>
-    <row r="248" ht="28" spans="1:41">
+    <row r="248" ht="28" hidden="1" spans="1:41">
       <c r="A248" s="3" t="s">
         <v>638</v>
       </c>
@@ -33467,7 +33475,7 @@
       <c r="AN248" s="6"/>
       <c r="AO248" s="6"/>
     </row>
-    <row r="249" ht="28" spans="1:41">
+    <row r="249" ht="28" hidden="1" spans="1:41">
       <c r="A249" s="3" t="s">
         <v>640</v>
       </c>
@@ -33524,7 +33532,7 @@
       <c r="AN249" s="6"/>
       <c r="AO249" s="6"/>
     </row>
-    <row r="250" ht="28" spans="1:41">
+    <row r="250" ht="28" hidden="1" spans="1:41">
       <c r="A250" s="3" t="s">
         <v>642</v>
       </c>
@@ -33581,7 +33589,7 @@
       <c r="AN250" s="6"/>
       <c r="AO250" s="6"/>
     </row>
-    <row r="251" ht="41" spans="1:41">
+    <row r="251" ht="41" hidden="1" spans="1:41">
       <c r="A251" s="3" t="s">
         <v>644</v>
       </c>
@@ -33638,7 +33646,7 @@
       <c r="AN251" s="6"/>
       <c r="AO251" s="6"/>
     </row>
-    <row r="252" ht="41" spans="1:41">
+    <row r="252" ht="41" hidden="1" spans="1:41">
       <c r="A252" s="3" t="s">
         <v>646</v>
       </c>
@@ -33695,7 +33703,7 @@
       <c r="AN252" s="6"/>
       <c r="AO252" s="6"/>
     </row>
-    <row r="253" ht="41" spans="1:41">
+    <row r="253" ht="41" hidden="1" spans="1:41">
       <c r="A253" s="3" t="s">
         <v>648</v>
       </c>
@@ -33752,7 +33760,7 @@
       <c r="AN253" s="6"/>
       <c r="AO253" s="6"/>
     </row>
-    <row r="254" ht="41" spans="1:41">
+    <row r="254" ht="41" hidden="1" spans="1:41">
       <c r="A254" s="3" t="s">
         <v>650</v>
       </c>
@@ -33809,7 +33817,7 @@
       <c r="AN254" s="6"/>
       <c r="AO254" s="6"/>
     </row>
-    <row r="255" ht="41" spans="1:41">
+    <row r="255" ht="41" hidden="1" spans="1:41">
       <c r="A255" s="3" t="s">
         <v>652</v>
       </c>
@@ -33866,7 +33874,7 @@
       <c r="AN255" s="6"/>
       <c r="AO255" s="6"/>
     </row>
-    <row r="256" ht="41" spans="1:41">
+    <row r="256" ht="41" hidden="1" spans="1:41">
       <c r="A256" s="3" t="s">
         <v>654</v>
       </c>
@@ -33923,7 +33931,7 @@
       <c r="AN256" s="6"/>
       <c r="AO256" s="6"/>
     </row>
-    <row r="257" ht="41" spans="1:41">
+    <row r="257" ht="41" hidden="1" spans="1:41">
       <c r="A257" s="3" t="s">
         <v>657</v>
       </c>
@@ -33980,7 +33988,7 @@
       <c r="AN257" s="6"/>
       <c r="AO257" s="6"/>
     </row>
-    <row r="258" ht="41" spans="1:41">
+    <row r="258" ht="41" hidden="1" spans="1:41">
       <c r="A258" s="3" t="s">
         <v>659</v>
       </c>
@@ -34037,7 +34045,7 @@
       <c r="AN258" s="6"/>
       <c r="AO258" s="6"/>
     </row>
-    <row r="259" ht="41" spans="1:41">
+    <row r="259" ht="41" hidden="1" spans="1:41">
       <c r="A259" s="3" t="s">
         <v>661</v>
       </c>
@@ -34151,7 +34159,7 @@
       <c r="AN260" s="6"/>
       <c r="AO260" s="6"/>
     </row>
-    <row r="261" ht="41" spans="1:41">
+    <row r="261" ht="41" hidden="1" spans="1:41">
       <c r="A261" s="3" t="s">
         <v>666</v>
       </c>
@@ -34208,7 +34216,7 @@
       <c r="AN261" s="6"/>
       <c r="AO261" s="6"/>
     </row>
-    <row r="262" ht="41" spans="1:41">
+    <row r="262" ht="41" hidden="1" spans="1:41">
       <c r="A262" s="3" t="s">
         <v>668</v>
       </c>
@@ -34265,7 +34273,7 @@
       <c r="AN262" s="6"/>
       <c r="AO262" s="6"/>
     </row>
-    <row r="263" ht="41" spans="1:41">
+    <row r="263" ht="41" hidden="1" spans="1:41">
       <c r="A263" s="3" t="s">
         <v>670</v>
       </c>
@@ -34322,7 +34330,7 @@
       <c r="AN263" s="6"/>
       <c r="AO263" s="6"/>
     </row>
-    <row r="264" ht="28" spans="1:41">
+    <row r="264" ht="28" hidden="1" spans="1:41">
       <c r="A264" s="3" t="s">
         <v>672</v>
       </c>
@@ -34379,7 +34387,7 @@
       <c r="AN264" s="6"/>
       <c r="AO264" s="6"/>
     </row>
-    <row r="265" ht="41" spans="1:41">
+    <row r="265" ht="41" hidden="1" spans="1:41">
       <c r="A265" s="3" t="s">
         <v>674</v>
       </c>
@@ -34436,7 +34444,7 @@
       <c r="AN265" s="6"/>
       <c r="AO265" s="6"/>
     </row>
-    <row r="266" ht="41" spans="1:41">
+    <row r="266" ht="41" hidden="1" spans="1:41">
       <c r="A266" s="3" t="s">
         <v>676</v>
       </c>
@@ -34493,7 +34501,7 @@
       <c r="AN266" s="6"/>
       <c r="AO266" s="6"/>
     </row>
-    <row r="267" ht="41" spans="1:41">
+    <row r="267" ht="41" hidden="1" spans="1:41">
       <c r="A267" s="3" t="s">
         <v>678</v>
       </c>
@@ -34550,7 +34558,7 @@
       <c r="AN267" s="6"/>
       <c r="AO267" s="6"/>
     </row>
-    <row r="268" ht="41" spans="1:41">
+    <row r="268" ht="41" hidden="1" spans="1:41">
       <c r="A268" s="3" t="s">
         <v>680</v>
       </c>
@@ -34607,7 +34615,7 @@
       <c r="AN268" s="6"/>
       <c r="AO268" s="6"/>
     </row>
-    <row r="269" ht="41" spans="1:41">
+    <row r="269" ht="41" hidden="1" spans="1:41">
       <c r="A269" s="3" t="s">
         <v>682</v>
       </c>
@@ -34665,6 +34673,11 @@
       <c r="AO269" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B269">
+    <filterColumn colId="0">
+      <colorFilter dxfId="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="P1:AH1"/>
